--- a/classifier.xlsx
+++ b/classifier.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Major Project\travel\DSL\DSL Project - Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Major Project\travel\DSL\Image to Caption Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC761466-9FBE-4F03-A2AC-8AECE328A828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE814C4-0879-4332-AF62-6936B935E277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="787">
   <si>
     <t>Pets and Animals</t>
   </si>
@@ -616,13 +616,1783 @@
   </si>
   <si>
     <t>Vertical mouse</t>
+  </si>
+  <si>
+    <t>tench</t>
+  </si>
+  <si>
+    <t>goldfish</t>
+  </si>
+  <si>
+    <t>great_white_shark</t>
+  </si>
+  <si>
+    <t>tiger_shark</t>
+  </si>
+  <si>
+    <t>hammerhead</t>
+  </si>
+  <si>
+    <t>electric_ray</t>
+  </si>
+  <si>
+    <t>stingray</t>
+  </si>
+  <si>
+    <t>cock</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>brambling</t>
+  </si>
+  <si>
+    <t>goldfinch</t>
+  </si>
+  <si>
+    <t>house_finch</t>
+  </si>
+  <si>
+    <t>junco</t>
+  </si>
+  <si>
+    <t>indigo_bunting</t>
+  </si>
+  <si>
+    <t>robin</t>
+  </si>
+  <si>
+    <t>bulbul</t>
+  </si>
+  <si>
+    <t>jay</t>
+  </si>
+  <si>
+    <t>magpie</t>
+  </si>
+  <si>
+    <t>chickadee</t>
+  </si>
+  <si>
+    <t>water_ouzel</t>
+  </si>
+  <si>
+    <t>kite</t>
+  </si>
+  <si>
+    <t>bald_eagle</t>
+  </si>
+  <si>
+    <t>vulture</t>
+  </si>
+  <si>
+    <t>great_grey_owl</t>
+  </si>
+  <si>
+    <t>European_fire_salamander</t>
+  </si>
+  <si>
+    <t>common_newt</t>
+  </si>
+  <si>
+    <t>eft</t>
+  </si>
+  <si>
+    <t>spotted_salamander</t>
+  </si>
+  <si>
+    <t>axolotl</t>
+  </si>
+  <si>
+    <t>bullfrog</t>
+  </si>
+  <si>
+    <t>tree_frog</t>
+  </si>
+  <si>
+    <t>tailed_frog</t>
+  </si>
+  <si>
+    <t>loggerhead</t>
+  </si>
+  <si>
+    <t>leatherback_turtle</t>
+  </si>
+  <si>
+    <t>mud_turtle</t>
+  </si>
+  <si>
+    <t>terrapin</t>
+  </si>
+  <si>
+    <t>box_turtle</t>
+  </si>
+  <si>
+    <t>banded_gecko</t>
+  </si>
+  <si>
+    <t>common_iguana</t>
+  </si>
+  <si>
+    <t>American_chameleon</t>
+  </si>
+  <si>
+    <t>whiptail</t>
+  </si>
+  <si>
+    <t>agama</t>
+  </si>
+  <si>
+    <t>frilled_lizard</t>
+  </si>
+  <si>
+    <t>alligator_lizard</t>
+  </si>
+  <si>
+    <t>Gila_monster</t>
+  </si>
+  <si>
+    <t>green_lizard</t>
+  </si>
+  <si>
+    <t>African_chameleon</t>
+  </si>
+  <si>
+    <t>Komodo_dragon</t>
+  </si>
+  <si>
+    <t>African_crocodile</t>
+  </si>
+  <si>
+    <t>American_alligator</t>
+  </si>
+  <si>
+    <t>triceratops</t>
+  </si>
+  <si>
+    <t>thunder_snake</t>
+  </si>
+  <si>
+    <t>ringneck_snake</t>
+  </si>
+  <si>
+    <t>hognose_snake</t>
+  </si>
+  <si>
+    <t>green_snake</t>
+  </si>
+  <si>
+    <t>king_snake</t>
+  </si>
+  <si>
+    <t>garter_snake</t>
+  </si>
+  <si>
+    <t>water_snake</t>
+  </si>
+  <si>
+    <t>vine_snake</t>
+  </si>
+  <si>
+    <t>night_snake</t>
+  </si>
+  <si>
+    <t>boa_constrictor</t>
+  </si>
+  <si>
+    <t>rock_python</t>
+  </si>
+  <si>
+    <t>Indian_cobra</t>
+  </si>
+  <si>
+    <t>green_mamba</t>
+  </si>
+  <si>
+    <t>sea_snake</t>
+  </si>
+  <si>
+    <t>horned_viper</t>
+  </si>
+  <si>
+    <t>diamondback</t>
+  </si>
+  <si>
+    <t>sidewinder</t>
+  </si>
+  <si>
+    <t>trilobite</t>
+  </si>
+  <si>
+    <t>harvestman</t>
+  </si>
+  <si>
+    <t>scorpion</t>
+  </si>
+  <si>
+    <t>black_and_gold_garden_spider</t>
+  </si>
+  <si>
+    <t>barn_spider</t>
+  </si>
+  <si>
+    <t>garden_spider</t>
+  </si>
+  <si>
+    <t>black_widow</t>
+  </si>
+  <si>
+    <t>tarantula</t>
+  </si>
+  <si>
+    <t>wolf_spider</t>
+  </si>
+  <si>
+    <t>tick</t>
+  </si>
+  <si>
+    <t>centipede</t>
+  </si>
+  <si>
+    <t>black_grouse</t>
+  </si>
+  <si>
+    <t>ptarmigan</t>
+  </si>
+  <si>
+    <t>ruffed_grouse</t>
+  </si>
+  <si>
+    <t>prairie_chicken</t>
+  </si>
+  <si>
+    <t>peacock</t>
+  </si>
+  <si>
+    <t>quail</t>
+  </si>
+  <si>
+    <t>partridge</t>
+  </si>
+  <si>
+    <t>African_grey</t>
+  </si>
+  <si>
+    <t>macaw</t>
+  </si>
+  <si>
+    <t>sulphur-crested_cockatoo</t>
+  </si>
+  <si>
+    <t>lorikeet</t>
+  </si>
+  <si>
+    <t>coucal</t>
+  </si>
+  <si>
+    <t>bee_eater</t>
+  </si>
+  <si>
+    <t>hornbill</t>
+  </si>
+  <si>
+    <t>hummingbird</t>
+  </si>
+  <si>
+    <t>jacamar</t>
+  </si>
+  <si>
+    <t>toucan</t>
+  </si>
+  <si>
+    <t>drake</t>
+  </si>
+  <si>
+    <t>red-breasted_merganser</t>
+  </si>
+  <si>
+    <t>goose</t>
+  </si>
+  <si>
+    <t>black_swan</t>
+  </si>
+  <si>
+    <t>tusker</t>
+  </si>
+  <si>
+    <t>echidna</t>
+  </si>
+  <si>
+    <t>platypus</t>
+  </si>
+  <si>
+    <t>wallaby</t>
+  </si>
+  <si>
+    <t>koala</t>
+  </si>
+  <si>
+    <t>wombat</t>
+  </si>
+  <si>
+    <t>jellyfish</t>
+  </si>
+  <si>
+    <t>sea_anemone</t>
+  </si>
+  <si>
+    <t>brain_coral</t>
+  </si>
+  <si>
+    <t>flatworm</t>
+  </si>
+  <si>
+    <t>nematode</t>
+  </si>
+  <si>
+    <t>conch</t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>sea_slug</t>
+  </si>
+  <si>
+    <t>chiton</t>
+  </si>
+  <si>
+    <t>chambered_nautilus</t>
+  </si>
+  <si>
+    <t>Dungeness_crab</t>
+  </si>
+  <si>
+    <t>rock_crab</t>
+  </si>
+  <si>
+    <t>fiddler_crab</t>
+  </si>
+  <si>
+    <t>king_crab</t>
+  </si>
+  <si>
+    <t>American_lobster</t>
+  </si>
+  <si>
+    <t>spiny_lobster</t>
+  </si>
+  <si>
+    <t>crayfish</t>
+  </si>
+  <si>
+    <t>hermit_crab</t>
+  </si>
+  <si>
+    <t>isopod</t>
+  </si>
+  <si>
+    <t>white_stork</t>
+  </si>
+  <si>
+    <t>black_stork</t>
+  </si>
+  <si>
+    <t>spoonbill</t>
+  </si>
+  <si>
+    <t>flamingo</t>
+  </si>
+  <si>
+    <t>little_blue_heron</t>
+  </si>
+  <si>
+    <t>American_egret</t>
+  </si>
+  <si>
+    <t>bittern</t>
+  </si>
+  <si>
+    <t>crane</t>
+  </si>
+  <si>
+    <t>limpkin</t>
+  </si>
+  <si>
+    <t>European_gallinule</t>
+  </si>
+  <si>
+    <t>Porcupine</t>
+  </si>
+  <si>
+    <t>Fox Squirrel</t>
+  </si>
+  <si>
+    <t>Marmot</t>
+  </si>
+  <si>
+    <t>Beaver</t>
+  </si>
+  <si>
+    <t>Guinea Pig</t>
+  </si>
+  <si>
+    <t>Sorrel</t>
+  </si>
+  <si>
+    <t>Zebra</t>
+  </si>
+  <si>
+    <t>Hog</t>
+  </si>
+  <si>
+    <t>Wild Boar</t>
+  </si>
+  <si>
+    <t>Warthog</t>
+  </si>
+  <si>
+    <t>Hippopotamus</t>
+  </si>
+  <si>
+    <t>Ox</t>
+  </si>
+  <si>
+    <t>Water Buffalo</t>
+  </si>
+  <si>
+    <t>Bison</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Bighorn</t>
+  </si>
+  <si>
+    <t>Ibex</t>
+  </si>
+  <si>
+    <t>Hartebeest</t>
+  </si>
+  <si>
+    <t>Impala</t>
+  </si>
+  <si>
+    <t>Gazelle</t>
+  </si>
+  <si>
+    <t>Arabian Camel</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Weasel</t>
+  </si>
+  <si>
+    <t>Mink</t>
+  </si>
+  <si>
+    <t>Polecat</t>
+  </si>
+  <si>
+    <t>Black-footed Ferret</t>
+  </si>
+  <si>
+    <t>Otter</t>
+  </si>
+  <si>
+    <t>Skunk</t>
+  </si>
+  <si>
+    <t>Badger</t>
+  </si>
+  <si>
+    <t>Armadillo</t>
+  </si>
+  <si>
+    <t>Three-toed Sloth</t>
+  </si>
+  <si>
+    <t>Orangutan</t>
+  </si>
+  <si>
+    <t>Gorilla</t>
+  </si>
+  <si>
+    <t>Chimpanzee</t>
+  </si>
+  <si>
+    <t>Gibbon</t>
+  </si>
+  <si>
+    <t>Siamang</t>
+  </si>
+  <si>
+    <t>Guenon</t>
+  </si>
+  <si>
+    <t>Patas</t>
+  </si>
+  <si>
+    <t>Baboon</t>
+  </si>
+  <si>
+    <t>Macaque</t>
+  </si>
+  <si>
+    <t>Langur</t>
+  </si>
+  <si>
+    <t>Colobus</t>
+  </si>
+  <si>
+    <t>Proboscis Monkey</t>
+  </si>
+  <si>
+    <t>Marmoset</t>
+  </si>
+  <si>
+    <t>Capuchin</t>
+  </si>
+  <si>
+    <t>Howler Monkey</t>
+  </si>
+  <si>
+    <t>Titi</t>
+  </si>
+  <si>
+    <t>Spider Monkey</t>
+  </si>
+  <si>
+    <t>Squirrel Monkey</t>
+  </si>
+  <si>
+    <t>Madagascar Cat</t>
+  </si>
+  <si>
+    <t>Indri</t>
+  </si>
+  <si>
+    <t>Indian Elephant</t>
+  </si>
+  <si>
+    <t>African Elephant</t>
+  </si>
+  <si>
+    <t>Lesser Panda</t>
+  </si>
+  <si>
+    <t>Giant Panda</t>
+  </si>
+  <si>
+    <t>Abaya</t>
+  </si>
+  <si>
+    <t>Academic Gown</t>
+  </si>
+  <si>
+    <t>Accordion</t>
+  </si>
+  <si>
+    <t>Acoustic Guitar</t>
+  </si>
+  <si>
+    <t>Wrap Dress</t>
+  </si>
+  <si>
+    <t>Abacus</t>
+  </si>
+  <si>
+    <t>Aircraft Carrier</t>
+  </si>
+  <si>
+    <t>Airliner</t>
+  </si>
+  <si>
+    <t>Airship</t>
+  </si>
+  <si>
+    <t>Altar</t>
+  </si>
+  <si>
+    <t>Ambulance</t>
+  </si>
+  <si>
+    <t>Amphibian</t>
+  </si>
+  <si>
+    <t>Analog Clock</t>
+  </si>
+  <si>
+    <t>Apiary</t>
+  </si>
+  <si>
+    <t>Apron</t>
+  </si>
+  <si>
+    <t>Ashcan</t>
+  </si>
+  <si>
+    <t>Assault Rifle</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>Balance Beam</t>
+  </si>
+  <si>
+    <t>Balloon</t>
+  </si>
+  <si>
+    <t>Ballpoint</t>
+  </si>
+  <si>
+    <t>Band Aid</t>
+  </si>
+  <si>
+    <t>Bannister</t>
+  </si>
+  <si>
+    <t>Barbell</t>
+  </si>
+  <si>
+    <t>Barber Chair</t>
+  </si>
+  <si>
+    <t>Barbershop</t>
+  </si>
+  <si>
+    <t>Barn</t>
+  </si>
+  <si>
+    <t>Barometer</t>
+  </si>
+  <si>
+    <t>Barrel</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Baseball</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Bassinet</t>
+  </si>
+  <si>
+    <t>Bassoon</t>
+  </si>
+  <si>
+    <t>Bathing Cap</t>
+  </si>
+  <si>
+    <t>Bath Towel</t>
+  </si>
+  <si>
+    <t>Bathtub</t>
+  </si>
+  <si>
+    <t>Beach Wagon</t>
+  </si>
+  <si>
+    <t>Beacon</t>
+  </si>
+  <si>
+    <t>Beaker</t>
+  </si>
+  <si>
+    <t>Bearskin</t>
+  </si>
+  <si>
+    <t>Beer Bottle</t>
+  </si>
+  <si>
+    <t>Beer Glass</t>
+  </si>
+  <si>
+    <t>Bell Cote</t>
+  </si>
+  <si>
+    <t>Bib</t>
+  </si>
+  <si>
+    <t>Bicycle-built-for-two</t>
+  </si>
+  <si>
+    <t>Bikini</t>
+  </si>
+  <si>
+    <t>Binder</t>
+  </si>
+  <si>
+    <t>Binoculars</t>
+  </si>
+  <si>
+    <t>Birdhouse</t>
+  </si>
+  <si>
+    <t>Boathouse</t>
+  </si>
+  <si>
+    <t>Bobsled</t>
+  </si>
+  <si>
+    <t>Bolo Tie</t>
+  </si>
+  <si>
+    <t>Bonnet</t>
+  </si>
+  <si>
+    <t>Bookcase</t>
+  </si>
+  <si>
+    <t>Bookshop</t>
+  </si>
+  <si>
+    <t>Bottlecap</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Bow Tie</t>
+  </si>
+  <si>
+    <t>Brass</t>
+  </si>
+  <si>
+    <t>Brassiere</t>
+  </si>
+  <si>
+    <t>Breakwater</t>
+  </si>
+  <si>
+    <t>Breastplate</t>
+  </si>
+  <si>
+    <t>Broom</t>
+  </si>
+  <si>
+    <t>Bucket</t>
+  </si>
+  <si>
+    <t>Buckle</t>
+  </si>
+  <si>
+    <t>Bulletproof Vest</t>
+  </si>
+  <si>
+    <t>Bullet Train</t>
+  </si>
+  <si>
+    <t>Butcher Shop</t>
+  </si>
+  <si>
+    <t>Cab</t>
+  </si>
+  <si>
+    <t>Caldron</t>
+  </si>
+  <si>
+    <t>Candle</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>Canoe</t>
+  </si>
+  <si>
+    <t>Can Opener</t>
+  </si>
+  <si>
+    <t>Cardigan</t>
+  </si>
+  <si>
+    <t>Car Mirror</t>
+  </si>
+  <si>
+    <t>Carousel</t>
+  </si>
+  <si>
+    <t>Carpenter's Kit</t>
+  </si>
+  <si>
+    <t>Carton</t>
+  </si>
+  <si>
+    <t>Car Wheel</t>
+  </si>
+  <si>
+    <t>Cash Machine</t>
+  </si>
+  <si>
+    <t>Cassette</t>
+  </si>
+  <si>
+    <t>Cassette Player</t>
+  </si>
+  <si>
+    <t>Castle</t>
+  </si>
+  <si>
+    <t>Catamaran</t>
+  </si>
+  <si>
+    <t>CD Player</t>
+  </si>
+  <si>
+    <t>Cellular Telephone</t>
+  </si>
+  <si>
+    <t>Chain</t>
+  </si>
+  <si>
+    <t>Chainlink Fence</t>
+  </si>
+  <si>
+    <t>Chain Mail</t>
+  </si>
+  <si>
+    <t>Chain Saw</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Chiffonier</t>
+  </si>
+  <si>
+    <t>Chime</t>
+  </si>
+  <si>
+    <t>China Cabinet</t>
+  </si>
+  <si>
+    <t>Christmas Stocking</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>Cleaver</t>
+  </si>
+  <si>
+    <t>Cliff Dwelling</t>
+  </si>
+  <si>
+    <t>Tibetan_terrier</t>
+  </si>
+  <si>
+    <t>silky_terrier</t>
+  </si>
+  <si>
+    <t>soft-coated_wheaten_terrier</t>
+  </si>
+  <si>
+    <t>West_Highland_white_terrier</t>
+  </si>
+  <si>
+    <t>Lhasa</t>
+  </si>
+  <si>
+    <t>flat-coated_retriever</t>
+  </si>
+  <si>
+    <t>curly-coated_retriever</t>
+  </si>
+  <si>
+    <t>golden_retriever</t>
+  </si>
+  <si>
+    <t>Labrador_retriever</t>
+  </si>
+  <si>
+    <t>Chesapeake_Bay_retriever</t>
+  </si>
+  <si>
+    <t>German_short-haired_pointer</t>
+  </si>
+  <si>
+    <t>vizsla</t>
+  </si>
+  <si>
+    <t>English_setter</t>
+  </si>
+  <si>
+    <t>Irish_setter</t>
+  </si>
+  <si>
+    <t>Gordon_setter</t>
+  </si>
+  <si>
+    <t>Brittany_spaniel</t>
+  </si>
+  <si>
+    <t>clumber</t>
+  </si>
+  <si>
+    <t>English_springer</t>
+  </si>
+  <si>
+    <t>Welsh_springer_spaniel</t>
+  </si>
+  <si>
+    <t>cocker_spaniel</t>
+  </si>
+  <si>
+    <t>Sussex_spaniel</t>
+  </si>
+  <si>
+    <t>Irish_water_spaniel</t>
+  </si>
+  <si>
+    <t>kuvasz</t>
+  </si>
+  <si>
+    <t>schipperke</t>
+  </si>
+  <si>
+    <t>groenendael</t>
+  </si>
+  <si>
+    <t>malinois</t>
+  </si>
+  <si>
+    <t>briard</t>
+  </si>
+  <si>
+    <t>kelpie</t>
+  </si>
+  <si>
+    <t>komondor</t>
+  </si>
+  <si>
+    <t>Old_English_sheepdog</t>
+  </si>
+  <si>
+    <t>Shetland_sheepdog</t>
+  </si>
+  <si>
+    <t>collie</t>
+  </si>
+  <si>
+    <t>Border_collie</t>
+  </si>
+  <si>
+    <t>Bouvier_des_Flandres</t>
+  </si>
+  <si>
+    <t>Rottweiler</t>
+  </si>
+  <si>
+    <t>German_shepherd</t>
+  </si>
+  <si>
+    <t>Doberman</t>
+  </si>
+  <si>
+    <t>miniature_pinscher</t>
+  </si>
+  <si>
+    <t>Greater_Swiss_Mountain_dog</t>
+  </si>
+  <si>
+    <t>Bernese_mountain_dog</t>
+  </si>
+  <si>
+    <t>Appenzeller</t>
+  </si>
+  <si>
+    <t>EntleBucher</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>bull_mastiff</t>
+  </si>
+  <si>
+    <t>Tibetan_mastiff</t>
+  </si>
+  <si>
+    <t>French_bulldog</t>
+  </si>
+  <si>
+    <t>Great_Dane</t>
+  </si>
+  <si>
+    <t>Saint_Bernard</t>
+  </si>
+  <si>
+    <t>Eskimo_dog</t>
+  </si>
+  <si>
+    <t>malamute</t>
+  </si>
+  <si>
+    <t>Siberian_husky</t>
+  </si>
+  <si>
+    <t>dalmatian</t>
+  </si>
+  <si>
+    <t>affenpinscher</t>
+  </si>
+  <si>
+    <t>basenji</t>
+  </si>
+  <si>
+    <t>pug</t>
+  </si>
+  <si>
+    <t>Leonberg</t>
+  </si>
+  <si>
+    <t>Newfoundland</t>
+  </si>
+  <si>
+    <t>Great_Pyrenees</t>
+  </si>
+  <si>
+    <t>Samoyed</t>
+  </si>
+  <si>
+    <t>Pomeranian</t>
+  </si>
+  <si>
+    <t>chow</t>
+  </si>
+  <si>
+    <t>keeshond</t>
+  </si>
+  <si>
+    <t>Brabancon_griffon</t>
+  </si>
+  <si>
+    <t>Pembroke</t>
+  </si>
+  <si>
+    <t>toy_poodle</t>
+  </si>
+  <si>
+    <t>miniature_poodle</t>
+  </si>
+  <si>
+    <t>standard_poodle</t>
+  </si>
+  <si>
+    <t>Mexican_hairless</t>
+  </si>
+  <si>
+    <t>timber_wolf</t>
+  </si>
+  <si>
+    <t>white_wolf</t>
+  </si>
+  <si>
+    <t>red_wolf</t>
+  </si>
+  <si>
+    <t>coyote</t>
+  </si>
+  <si>
+    <t>dingo</t>
+  </si>
+  <si>
+    <t>dhole</t>
+  </si>
+  <si>
+    <t>African_hunting_dog</t>
+  </si>
+  <si>
+    <t>hyena</t>
+  </si>
+  <si>
+    <t>red_fox</t>
+  </si>
+  <si>
+    <t>kit_fox</t>
+  </si>
+  <si>
+    <t>Arctic_fox</t>
+  </si>
+  <si>
+    <t>grey_fox</t>
+  </si>
+  <si>
+    <t>tabby</t>
+  </si>
+  <si>
+    <t>tiger_cat</t>
+  </si>
+  <si>
+    <t>Persian_cat</t>
+  </si>
+  <si>
+    <t>Siamese_cat</t>
+  </si>
+  <si>
+    <t>Egyptian_cat</t>
+  </si>
+  <si>
+    <t>cougar</t>
+  </si>
+  <si>
+    <t>lynx</t>
+  </si>
+  <si>
+    <t>leopard</t>
+  </si>
+  <si>
+    <t>snow_leopard</t>
+  </si>
+  <si>
+    <t>jaguar</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>cheetah</t>
+  </si>
+  <si>
+    <t>brown_bear</t>
+  </si>
+  <si>
+    <t>American_black_bear</t>
+  </si>
+  <si>
+    <t>ice_bear</t>
+  </si>
+  <si>
+    <t>sloth_bear</t>
+  </si>
+  <si>
+    <t>mongoose</t>
+  </si>
+  <si>
+    <t>meerkat</t>
+  </si>
+  <si>
+    <t>tiger_beetle</t>
+  </si>
+  <si>
+    <t>ladybug</t>
+  </si>
+  <si>
+    <t>ground_beetle</t>
+  </si>
+  <si>
+    <t>long-horned_beetle</t>
+  </si>
+  <si>
+    <t>leaf_beetle</t>
+  </si>
+  <si>
+    <t>dung_beetle</t>
+  </si>
+  <si>
+    <t>rhinoceros_beetle</t>
+  </si>
+  <si>
+    <t>weevil</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>grasshopper</t>
+  </si>
+  <si>
+    <t>cricket</t>
+  </si>
+  <si>
+    <t>walking_stick</t>
+  </si>
+  <si>
+    <t>cockroach</t>
+  </si>
+  <si>
+    <t>mantis</t>
+  </si>
+  <si>
+    <t>cicada</t>
+  </si>
+  <si>
+    <t>leafhopper</t>
+  </si>
+  <si>
+    <t>lacewing</t>
+  </si>
+  <si>
+    <t>dragonfly</t>
+  </si>
+  <si>
+    <t>damselfly</t>
+  </si>
+  <si>
+    <t>admiral</t>
+  </si>
+  <si>
+    <t>ringlet</t>
+  </si>
+  <si>
+    <t>monarch</t>
+  </si>
+  <si>
+    <t>cabbage_butterfly</t>
+  </si>
+  <si>
+    <t>sulphur_butterfly</t>
+  </si>
+  <si>
+    <t>lycaenid</t>
+  </si>
+  <si>
+    <t>starfish</t>
+  </si>
+  <si>
+    <t>sea_urchin</t>
+  </si>
+  <si>
+    <t>sea_cucumber</t>
+  </si>
+  <si>
+    <t>wood_rabbit</t>
+  </si>
+  <si>
+    <t>hare</t>
+  </si>
+  <si>
+    <t>Angora</t>
+  </si>
+  <si>
+    <t>hamster</t>
+  </si>
+  <si>
+    <t>puter</t>
+  </si>
+  <si>
+    <t>handkerchief</t>
+  </si>
+  <si>
+    <t>harmonica</t>
+  </si>
+  <si>
+    <t>harp</t>
+  </si>
+  <si>
+    <t>harvester</t>
+  </si>
+  <si>
+    <t>hatchet</t>
+  </si>
+  <si>
+    <t>holster</t>
+  </si>
+  <si>
+    <t>home_theater</t>
+  </si>
+  <si>
+    <t>honeycomb</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>hoopskirt</t>
+  </si>
+  <si>
+    <t>horizontal_bar</t>
+  </si>
+  <si>
+    <t>jean</t>
+  </si>
+  <si>
+    <t>jigsaw_puzzle</t>
+  </si>
+  <si>
+    <t>jinrikisha</t>
+  </si>
+  <si>
+    <t>kimono</t>
+  </si>
+  <si>
+    <t>knee_pad</t>
+  </si>
+  <si>
+    <t>knot</t>
+  </si>
+  <si>
+    <t>lab_coat</t>
+  </si>
+  <si>
+    <t>ladle</t>
+  </si>
+  <si>
+    <t>lampshade</t>
+  </si>
+  <si>
+    <t>lipstick</t>
+  </si>
+  <si>
+    <t>Loafer</t>
+  </si>
+  <si>
+    <t>lotion</t>
+  </si>
+  <si>
+    <t>loudspeaker</t>
+  </si>
+  <si>
+    <t>loupe</t>
+  </si>
+  <si>
+    <t>hard_disc</t>
+  </si>
+  <si>
+    <t>hourglass</t>
+  </si>
+  <si>
+    <t>iPod</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>jack-o'-lantern</t>
+  </si>
+  <si>
+    <t>jeep</t>
+  </si>
+  <si>
+    <t>jersey</t>
+  </si>
+  <si>
+    <t>joystick</t>
+  </si>
+  <si>
+    <t>lens_cap</t>
+  </si>
+  <si>
+    <t>letter_opener</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>lifeboat</t>
+  </si>
+  <si>
+    <t>lighter</t>
+  </si>
+  <si>
+    <t>limousine</t>
+  </si>
+  <si>
+    <t>liner</t>
+  </si>
+  <si>
+    <t>magnetic_compass</t>
+  </si>
+  <si>
+    <t>mailbag</t>
+  </si>
+  <si>
+    <t>mailbox</t>
+  </si>
+  <si>
+    <t>maillot</t>
+  </si>
+  <si>
+    <t>manhole_cover</t>
+  </si>
+  <si>
+    <t>maraca</t>
+  </si>
+  <si>
+    <t>marimba</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>matchstick</t>
+  </si>
+  <si>
+    <t>maypole</t>
+  </si>
+  <si>
+    <t>maze</t>
+  </si>
+  <si>
+    <t>measuring_cup</t>
+  </si>
+  <si>
+    <t>medicine_chest</t>
+  </si>
+  <si>
+    <t>megalith</t>
+  </si>
+  <si>
+    <t>microphone</t>
+  </si>
+  <si>
+    <t>microwave</t>
+  </si>
+  <si>
+    <t>military_uniform</t>
+  </si>
+  <si>
+    <t>milk_can</t>
+  </si>
+  <si>
+    <t>minibus</t>
+  </si>
+  <si>
+    <t>miniskirt</t>
+  </si>
+  <si>
+    <t>minivan</t>
+  </si>
+  <si>
+    <t>missile</t>
+  </si>
+  <si>
+    <t>mitten</t>
+  </si>
+  <si>
+    <t>mixing_bowl</t>
+  </si>
+  <si>
+    <t>mobile_home</t>
+  </si>
+  <si>
+    <t>Model_T</t>
+  </si>
+  <si>
+    <t>modem</t>
+  </si>
+  <si>
+    <t>monastery</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t>moped</t>
+  </si>
+  <si>
+    <t>mortar</t>
+  </si>
+  <si>
+    <t>mortarboard</t>
+  </si>
+  <si>
+    <t>mosque</t>
+  </si>
+  <si>
+    <t>mosquito_net</t>
+  </si>
+  <si>
+    <t>motor_scooter</t>
+  </si>
+  <si>
+    <t>mountain_bike</t>
+  </si>
+  <si>
+    <t>mountain_tent</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>mousetrap</t>
+  </si>
+  <si>
+    <t>moving_van</t>
+  </si>
+  <si>
+    <t>muzzle</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>neck_brace</t>
+  </si>
+  <si>
+    <t>necklace</t>
+  </si>
+  <si>
+    <t>nipple</t>
+  </si>
+  <si>
+    <t>notebook</t>
+  </si>
+  <si>
+    <t>obelisk</t>
+  </si>
+  <si>
+    <t>oboe</t>
+  </si>
+  <si>
+    <t>ocarina</t>
+  </si>
+  <si>
+    <t>odometer</t>
+  </si>
+  <si>
+    <t>oil_filter</t>
+  </si>
+  <si>
+    <t>organ</t>
+  </si>
+  <si>
+    <t>oscilloscope</t>
+  </si>
+  <si>
+    <t>overskirt</t>
+  </si>
+  <si>
+    <t>oxcart</t>
+  </si>
+  <si>
+    <t>oxygen_mask</t>
+  </si>
+  <si>
+    <t>packet</t>
+  </si>
+  <si>
+    <t>paddle</t>
+  </si>
+  <si>
+    <t>paddlewheel</t>
+  </si>
+  <si>
+    <t>padlock</t>
+  </si>
+  <si>
+    <t>paintbrush</t>
+  </si>
+  <si>
+    <t>pajama</t>
+  </si>
+  <si>
+    <t>palace</t>
+  </si>
+  <si>
+    <t>panpipe</t>
+  </si>
+  <si>
+    <t>paper_towel</t>
+  </si>
+  <si>
+    <t>Jack Russell Terrier</t>
+  </si>
+  <si>
+    <t>Trench coat</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Soap dispenser</t>
+  </si>
+  <si>
+    <t>Space shuttle</t>
+  </si>
+  <si>
+    <t>Solar dish</t>
+  </si>
+  <si>
+    <t>Stethoscope</t>
+  </si>
+  <si>
+    <t>Steam locomotive</t>
+  </si>
+  <si>
+    <t>Table lamp</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Wok</t>
+  </si>
+  <si>
+    <t>Wooden spoon</t>
+  </si>
+  <si>
+    <t>Umbrella</t>
+  </si>
+  <si>
+    <t>Tow truck</t>
+  </si>
+  <si>
+    <t>Toyshop</t>
+  </si>
+  <si>
+    <t>Vase</t>
+  </si>
+  <si>
+    <t>Vault</t>
+  </si>
+  <si>
+    <t>Velvet</t>
+  </si>
+  <si>
+    <t>Vestment</t>
+  </si>
+  <si>
+    <t>Viaduct</t>
+  </si>
+  <si>
+    <t>Vacuum</t>
+  </si>
+  <si>
+    <t>Upright</t>
+  </si>
+  <si>
+    <t>Unicycle</t>
+  </si>
+  <si>
+    <t>Turnstile</t>
+  </si>
+  <si>
+    <t>Tub</t>
+  </si>
+  <si>
+    <t>Trombone</t>
+  </si>
+  <si>
+    <t>Trolleybus</t>
+  </si>
+  <si>
+    <t>Triumphal arch</t>
+  </si>
+  <si>
+    <t>Tripod</t>
+  </si>
+  <si>
+    <t>Tricycle</t>
+  </si>
+  <si>
+    <t>Tray</t>
+  </si>
+  <si>
+    <t>Trailer truck</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>Totem pole</t>
+  </si>
+  <si>
+    <t>Web site</t>
+  </si>
+  <si>
+    <t>Window screen</t>
+  </si>
+  <si>
+    <t>Window shade</t>
+  </si>
+  <si>
+    <t>Windsor tie</t>
+  </si>
+  <si>
+    <t>Wine bottle</t>
+  </si>
+  <si>
+    <t>Wing</t>
+  </si>
+  <si>
+    <t>Worm fence</t>
+  </si>
+  <si>
+    <t>Wreck</t>
+  </si>
+  <si>
+    <t>Yawl</t>
+  </si>
+  <si>
+    <t>Yurt</t>
+  </si>
+  <si>
+    <t>Wall clock</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Wardrobe</t>
+  </si>
+  <si>
+    <t>Warplane</t>
+  </si>
+  <si>
+    <t>Washbasin</t>
+  </si>
+  <si>
+    <t>Washer</t>
+  </si>
+  <si>
+    <t>Water jug</t>
+  </si>
+  <si>
+    <t>Water tower</t>
+  </si>
+  <si>
+    <t>Whiskey jug</t>
+  </si>
+  <si>
+    <t>Whistle</t>
+  </si>
+  <si>
+    <t>Wig</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Toilet tissue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,8 +2402,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -645,7 +2419,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -668,17 +2442,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B803"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A741" workbookViewId="0">
+      <selection activeCell="D743" sqref="D743"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2562,6 +4366,4838 @@
         <v>196</v>
       </c>
     </row>
+    <row r="200" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A459" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A461" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A464" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A465" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A467" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A468" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A470" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A471" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A472" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A473" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A474" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A475" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A476" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A477" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A478" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A479" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A480" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A481" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A482" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A483" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A484" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A485" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A486" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A487" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A488" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A489" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A490" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A491" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B491" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A492" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A493" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A494" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A495" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A496" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A497" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A498" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A499" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A500" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A501" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A502" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A503" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A504" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A505" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A506" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A507" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A508" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A509" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A510" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B510" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A511" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A512" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B512" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A513" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A514" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A515" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A516" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A517" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A518" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A519" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B519" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A520" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B520" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A521" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B521" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A522" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B522" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A523" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B523" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A524" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B524" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A525" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B525" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A526" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B526" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A527" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A528" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A529" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A530" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A531" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B531" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A532" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A533" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B533" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A534" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A535" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B535" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A536" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B536" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A537" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A538" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A539" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A540" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A541" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B541" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A542" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A543" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A544" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A545" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A546" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A547" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A548" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B548" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A549" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B549" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A550" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B550" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A551" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B551" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A552" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B552" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A553" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A554" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B554" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A555" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A556" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A557" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A558" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A559" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A560" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A561" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A562" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A563" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B563" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A564" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B564" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A565" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B565" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A566" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B566" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A567" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B567" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A568" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B568" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A569" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B569" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A570" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B570" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A571" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B571" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A572" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B572" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A573" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B573" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A574" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B574" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A575" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B575" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A576" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B576" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A577" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B577" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A578" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B578" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A579" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B579" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A580" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B580" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A581" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B581" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A582" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B582" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A583" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B583" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A584" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B584" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A585" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B585" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A586" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B586" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A587" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B587" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A588" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B588" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A589" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B589" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A590" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B590" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A591" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A592" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A593" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A594" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B594" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A595" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A596" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A597" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A598" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A599" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A600" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B600" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A601" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A602" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A603" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B603" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B604" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A605" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B605" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A606" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B606" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A607" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B607" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A608" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B608" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A609" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B609" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A610" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B610" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A611" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A612" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A613" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B613" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A614" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B614" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A615" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A616" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B616" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A617" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B617" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A618" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A619" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A620" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A621" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A622" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B622" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A623" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B623" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A624" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B624" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A625" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B625" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A626" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B626" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A627" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B627" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A628" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B628" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A629" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A630" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A631" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A632" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A633" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B633" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A634" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A635" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A636" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A637" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A638" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A639" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B639" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A640" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A641" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A642" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A643" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A644" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A645" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A646" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A647" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B647" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A648" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B648" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A649" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A650" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A651" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A652" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A653" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A654" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A655" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B655" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A656" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B656" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A657" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B657" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A658" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A659" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B659" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A660" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B660" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A661" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A662" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A663" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A664" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B664" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A665" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B665" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A666" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B666" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A667" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B667" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A668" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B668" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A669" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B669" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A670" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A671" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B671" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A672" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A673" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A674" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A675" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A676" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A677" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A678" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A679" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A680" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A681" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A682" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A683" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A684" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B684" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A685" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A686" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A687" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A688" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A689" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A690" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A691" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A692" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A693" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A694" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A695" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A696" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B696" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A697" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A698" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A699" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A700" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A701" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A702" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A703" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A704" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A705" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A706" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B706" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A707" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A708" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A709" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A710" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A711" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A712" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A713" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A714" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A715" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A716" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A717" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A718" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A719" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A720" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A721" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A722" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A723" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A724" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B724" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A725" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A726" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A727" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A728" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A729" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A730" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A731" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A732" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A733" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A734" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A735" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A736" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A737" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A738" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A739" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B739" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A740" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B740" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A741" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A742" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B742" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A743" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A744" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B744" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A745" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B745" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A746" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A747" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B747" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A748" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A749" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A750" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A751" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A752" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A753" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B753" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A754" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A755" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A756" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A757" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A758" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A759" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A760" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A761" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A762" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A763" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A764" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A765" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A766" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B766" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A767" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A768" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B768" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A769" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A770" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B770" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A771" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B771" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A772" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A773" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B773" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A774" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B774" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A775" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B775" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A776" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B776" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A777" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B777" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A778" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A779" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B779" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A780" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B780" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A781" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B781" s="4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A782" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B782" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A783" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B783" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A784" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B784" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A785" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B785" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A786" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A787" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B787" s="4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A788" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A789" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B789" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A790" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B790" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A791" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B791" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A792" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A793" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B793" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A794" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B794" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A795" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A796" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A797" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A798" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A799" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A800" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A801" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B801" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A802" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B802" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A803" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B803" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
